--- a/python/Statistics/Results/classification_comparison_00Z_1979-2016.xlsx
+++ b/python/Statistics/Results/classification_comparison_00Z_1979-2016.xlsx
@@ -1,44 +1,164 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hatzv\Documents\Geography\RSTs\python\Statistics\Results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+  <si>
+    <t>1979-2016</t>
+  </si>
+  <si>
+    <t>RST East</t>
+  </si>
+  <si>
+    <t>RST West</t>
+  </si>
+  <si>
+    <t>RST Central</t>
+  </si>
+  <si>
+    <t>PT weak</t>
+  </si>
+  <si>
+    <t>PT medium</t>
+  </si>
+  <si>
+    <t>PT deep</t>
+  </si>
+  <si>
+    <t>High East</t>
+  </si>
+  <si>
+    <t>High West</t>
+  </si>
+  <si>
+    <t>High North</t>
+  </si>
+  <si>
+    <t>High Central</t>
+  </si>
+  <si>
+    <t>Low East deep</t>
+  </si>
+  <si>
+    <t>CL South deep</t>
+  </si>
+  <si>
+    <t>CL South shallow</t>
+  </si>
+  <si>
+    <t>CL North deep</t>
+  </si>
+  <si>
+    <t>CL North shallow</t>
+  </si>
+  <si>
+    <t>Cold low West</t>
+  </si>
+  <si>
+    <t>Low East shallow</t>
+  </si>
+  <si>
+    <t>Sharav Low West</t>
+  </si>
+  <si>
+    <t>Sharav Low central</t>
+  </si>
+  <si>
+    <t>NCEP-No RST</t>
+  </si>
+  <si>
+    <t>NCEP-East</t>
+  </si>
+  <si>
+    <t>NCEP-West</t>
+  </si>
+  <si>
+    <t>NCEP-Central</t>
+  </si>
+  <si>
+    <t>ERA-No RST</t>
+  </si>
+  <si>
+    <t>ERA-East</t>
+  </si>
+  <si>
+    <t>ERA-West</t>
+  </si>
+  <si>
+    <t>ERA-Central</t>
+  </si>
+  <si>
+    <t>ERA 2.5 -No RST</t>
+  </si>
+  <si>
+    <t>ERA 2.5 -East</t>
+  </si>
+  <si>
+    <t>ERA 2.5 -West</t>
+  </si>
+  <si>
+    <t>ERA 2.5 -Central</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -46,17 +166,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Input" xfId="1" builtinId="20"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -344,650 +491,773 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="B2:T15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:20">
-      <c r="B2" t="n">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2">
         <v>1418</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>65</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>721</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>2197</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>1757</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>201</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>413</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>2352</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>563</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>565</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2">
         <v>277</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2">
         <v>13</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N2">
         <v>11</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2">
         <v>297</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P2">
         <v>623</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q2">
         <v>301</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R2">
         <v>618</v>
       </c>
-      <c r="S2" t="n">
+      <c r="S2">
         <v>61</v>
       </c>
-      <c r="T2" t="n">
+      <c r="T2">
         <v>87</v>
       </c>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="B3" t="n">
+      <c r="U2">
+        <f>SUM(B2:T2)</f>
+        <v>12540</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3">
         <v>47</v>
       </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>15</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>5</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>3</v>
       </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
         <v>17</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>13</v>
       </c>
-      <c r="L3" t="n">
-        <v>2</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" t="n">
-        <v>2</v>
-      </c>
-      <c r="P3" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>4</v>
-      </c>
-      <c r="R3" t="n">
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+      <c r="P3">
+        <v>4</v>
+      </c>
+      <c r="Q3">
+        <v>4</v>
+      </c>
+      <c r="R3">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="B4" t="n">
+      <c r="U3">
+        <f>SUM(B3:T3)</f>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
         <v>286</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>24</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>291</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>28</v>
       </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="H4">
         <v>31</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>46</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>119</v>
       </c>
-      <c r="K4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" t="n">
-        <v>2</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
         <v>5</v>
       </c>
-      <c r="O4" t="n">
-        <v>2</v>
-      </c>
-      <c r="P4" t="n">
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4">
         <v>17</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4">
         <v>9</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R4">
         <v>21</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S4">
         <v>8</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="B5" t="n">
+      <c r="U4">
+        <f>SUM(B4:T4)</f>
+        <v>896</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5">
         <v>84</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>7</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>98</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>11</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>3</v>
       </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" t="n">
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
         <v>13</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>18</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>38</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>5</v>
       </c>
-      <c r="L5" t="n">
-        <v>4</v>
-      </c>
-      <c r="N5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2</v>
-      </c>
-      <c r="R5" t="n">
+      <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>4</v>
+      </c>
+      <c r="Q5">
+        <v>2</v>
+      </c>
+      <c r="R5">
         <v>15</v>
       </c>
-      <c r="S5" t="n">
-        <v>2</v>
-      </c>
-      <c r="T5" t="n">
+      <c r="S5">
+        <v>2</v>
+      </c>
+      <c r="T5">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="B7" t="n">
+      <c r="U5">
+        <f>SUM(B5:T5)</f>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="U6">
+        <f>SUM(U2:U5)</f>
+        <v>13880</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7">
         <v>1565</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>57</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>813</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>2228</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>1762</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>202</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>398</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>2389</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>643</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>565</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7">
         <v>280</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M7">
         <v>13</v>
       </c>
-      <c r="N7" t="n">
+      <c r="N7">
         <v>10</v>
       </c>
-      <c r="O7" t="n">
+      <c r="O7">
         <v>300</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P7">
         <v>635</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q7">
         <v>297</v>
       </c>
-      <c r="R7" t="n">
+      <c r="R7">
         <v>631</v>
       </c>
-      <c r="S7" t="n">
+      <c r="S7">
         <v>58</v>
       </c>
-      <c r="T7" t="n">
+      <c r="T7">
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
-      <c r="B8" t="n">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
         <v>108</v>
       </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="n">
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
         <v>63</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>6</v>
       </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" t="n">
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="H8">
         <v>11</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>25</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>21</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8">
         <v>3</v>
       </c>
-      <c r="L8" t="n">
-        <v>4</v>
-      </c>
-      <c r="N8" t="n">
-        <v>2</v>
-      </c>
-      <c r="P8" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q8" t="n">
+      <c r="L8">
+        <v>4</v>
+      </c>
+      <c r="N8">
+        <v>2</v>
+      </c>
+      <c r="P8">
+        <v>4</v>
+      </c>
+      <c r="Q8">
         <v>7</v>
       </c>
-      <c r="R8" t="n">
+      <c r="R8">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
-      <c r="B9" t="n">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9">
         <v>139</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>32</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>195</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>3</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>41</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>17</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9">
         <v>60</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9">
         <v>3</v>
       </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="n">
-        <v>4</v>
-      </c>
-      <c r="N9" t="n">
-        <v>1</v>
-      </c>
-      <c r="O9" t="n">
-        <v>2</v>
-      </c>
-      <c r="P9" t="n">
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>4</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>2</v>
+      </c>
+      <c r="P9">
         <v>5</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q9">
         <v>10</v>
       </c>
-      <c r="R9" t="n">
+      <c r="R9">
         <v>13</v>
       </c>
-      <c r="S9" t="n">
+      <c r="S9">
         <v>13</v>
       </c>
-      <c r="T9" t="n">
+      <c r="T9">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
-      <c r="B10" t="n">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10">
         <v>23</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>6</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>54</v>
       </c>
-      <c r="E10" t="n">
-        <v>4</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" t="n">
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="H10">
         <v>11</v>
       </c>
-      <c r="I10" t="n">
-        <v>2</v>
-      </c>
-      <c r="J10" t="n">
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10">
         <v>9</v>
       </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2</v>
-      </c>
-      <c r="R10" t="n">
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>4</v>
+      </c>
+      <c r="Q10">
+        <v>2</v>
+      </c>
+      <c r="R10">
         <v>5</v>
       </c>
-      <c r="T10" t="n">
+      <c r="T10">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
-      <c r="B12" t="n">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12">
         <v>1279</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>49</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>575</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>2193</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>1758</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>200</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
         <v>369</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12">
         <v>2327</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J12">
         <v>549</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K12">
         <v>560</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L12">
         <v>280</v>
       </c>
-      <c r="M12" t="n">
+      <c r="M12">
         <v>12</v>
       </c>
-      <c r="N12" t="n">
+      <c r="N12">
         <v>9</v>
       </c>
-      <c r="O12" t="n">
+      <c r="O12">
         <v>300</v>
       </c>
-      <c r="P12" t="n">
+      <c r="P12">
         <v>618</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="Q12">
         <v>287</v>
       </c>
-      <c r="R12" t="n">
+      <c r="R12">
         <v>597</v>
       </c>
-      <c r="S12" t="n">
+      <c r="S12">
         <v>52</v>
       </c>
-      <c r="T12" t="n">
+      <c r="T12">
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
-      <c r="B13" t="n">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13">
         <v>209</v>
       </c>
-      <c r="C13" t="n">
-        <v>4</v>
-      </c>
-      <c r="D13" t="n">
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
         <v>117</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>25</v>
       </c>
-      <c r="F13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" t="n">
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
         <v>13</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13">
         <v>53</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J13">
         <v>37</v>
       </c>
-      <c r="K13" t="n">
-        <v>1</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="n">
-        <v>2</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1</v>
-      </c>
-      <c r="P13" t="n">
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>2</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
         <v>13</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="Q13">
         <v>11</v>
       </c>
-      <c r="R13" t="n">
+      <c r="R13">
         <v>37</v>
       </c>
-      <c r="S13" t="n">
+      <c r="S13">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
-      <c r="B14" t="n">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14">
         <v>252</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>27</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>263</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>16</v>
       </c>
-      <c r="F14" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" t="n">
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
         <v>43</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14">
         <v>41</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J14">
         <v>94</v>
       </c>
-      <c r="K14" t="n">
-        <v>4</v>
-      </c>
-      <c r="L14" t="n">
-        <v>4</v>
-      </c>
-      <c r="M14" t="n">
-        <v>4</v>
-      </c>
-      <c r="N14" t="n">
-        <v>1</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" t="n">
+      <c r="K14">
+        <v>4</v>
+      </c>
+      <c r="L14">
+        <v>4</v>
+      </c>
+      <c r="M14">
+        <v>4</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
         <v>7</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="Q14">
         <v>10</v>
       </c>
-      <c r="R14" t="n">
+      <c r="R14">
         <v>19</v>
       </c>
-      <c r="S14" t="n">
+      <c r="S14">
         <v>9</v>
       </c>
-      <c r="T14" t="n">
+      <c r="T14">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
-      <c r="B15" t="n">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15">
         <v>95</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>17</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>170</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>7</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>3</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
         <v>36</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15">
         <v>12</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J15">
         <v>53</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K15">
         <v>6</v>
       </c>
-      <c r="M15" t="n">
-        <v>2</v>
-      </c>
-      <c r="N15" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" t="n">
+      <c r="M15">
+        <v>2</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="P15">
         <v>10</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="Q15">
         <v>8</v>
       </c>
-      <c r="R15" t="n">
+      <c r="R15">
         <v>15</v>
       </c>
-      <c r="S15" t="n">
-        <v>4</v>
-      </c>
-      <c r="T15" t="n">
+      <c r="S15">
+        <v>4</v>
+      </c>
+      <c r="T15">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>